--- a/feature_keys.xlsx
+++ b/feature_keys.xlsx
@@ -5,19 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlykelly/Documents/UVA_Files/DS_6040/DS_6040_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlykelly/Documents/UVA_Files/DS_6040/6040Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{713A68C6-6D00-8341-8F95-368E34005A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E2328C-19DB-4846-8CDA-E946F9C62DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{B904709E-2705-0941-AD56-BC43507998D0}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="8" xr2:uid="{B904709E-2705-0941-AD56-BC43507998D0}"/>
   </bookViews>
   <sheets>
     <sheet name="weather" sheetId="1" r:id="rId1"/>
     <sheet name="roadwaycondition" sheetId="3" r:id="rId2"/>
-    <sheet name="light" sheetId="2" r:id="rId3"/>
+    <sheet name="alignment" sheetId="4" r:id="rId3"/>
+    <sheet name="light" sheetId="2" r:id="rId4"/>
+    <sheet name="surfacetype" sheetId="5" r:id="rId5"/>
+    <sheet name="defect" sheetId="6" r:id="rId6"/>
+    <sheet name="description" sheetId="7" r:id="rId7"/>
+    <sheet name="traffic control status" sheetId="8" r:id="rId8"/>
+    <sheet name="work zone" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>No_Adverse_Conditions</t>
   </si>
@@ -121,19 +127,139 @@
   </si>
   <si>
     <t>Muddy</t>
+  </si>
+  <si>
+    <t>Straight-Level</t>
+  </si>
+  <si>
+    <t>Grade-Straight</t>
+  </si>
+  <si>
+    <t>Curve-Level</t>
+  </si>
+  <si>
+    <t>Grade-Curve</t>
+  </si>
+  <si>
+    <t>Hillcrest-Straight</t>
+  </si>
+  <si>
+    <t>Hillcrest-Curve</t>
+  </si>
+  <si>
+    <t>Dip-Straight</t>
+  </si>
+  <si>
+    <t>Dip-Curve</t>
+  </si>
+  <si>
+    <t>On/Off Ramp</t>
+  </si>
+  <si>
+    <t>Blacktop, Asphalt, Bituminous</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Brick or Block</t>
+  </si>
+  <si>
+    <t>Slag, Gravel, Stone</t>
+  </si>
+  <si>
+    <t>Dirt</t>
+  </si>
+  <si>
+    <t>No Defects</t>
+  </si>
+  <si>
+    <t>Slick Pavement</t>
+  </si>
+  <si>
+    <t>Holes, Ruts, Bumps</t>
+  </si>
+  <si>
+    <t>Loose Material</t>
+  </si>
+  <si>
+    <t>Soft or Low Shoulder</t>
+  </si>
+  <si>
+    <t>Under Repair</t>
+  </si>
+  <si>
+    <t>Edge Pavement Dropoff</t>
+  </si>
+  <si>
+    <t>Roadway Obstructed</t>
+  </si>
+  <si>
+    <t>Restricted Width</t>
+  </si>
+  <si>
+    <t>Two-Way, Not Divided</t>
+  </si>
+  <si>
+    <t>Two-Way, Divided, Unprotected Median</t>
+  </si>
+  <si>
+    <t>Two-Way, Divided, Positive Median Barrier</t>
+  </si>
+  <si>
+    <t>One-Way, Not Divided</t>
+  </si>
+  <si>
+    <t>No Traffic Control Device Present</t>
+  </si>
+  <si>
+    <t>Yes - Working and Obscured</t>
+  </si>
+  <si>
+    <t>Yes - Not Working</t>
+  </si>
+  <si>
+    <t>Yes - Not Working and Obscured</t>
+  </si>
+  <si>
+    <t>Yes - Missing</t>
+  </si>
+  <si>
+    <t>Yes - Working</t>
+  </si>
+  <si>
+    <t>Lane Closure</t>
+  </si>
+  <si>
+    <t>Work on Shoulder or Median</t>
+  </si>
+  <si>
+    <t>Lane Shift/Crossover</t>
+  </si>
+  <si>
+    <t>Intermittent or Moving Work</t>
+  </si>
+  <si>
+    <t>Non Workzone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,8 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +602,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A120913-5C14-3A41-972A-B3E85B9C2097}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -677,6 +804,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C216676-DE27-D34C-B205-A9DCA6D2CE5B}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E003D7-86A8-9E4A-A8E8-A8E108B5F6B1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -745,4 +967,343 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3BE973-F777-254D-A470-16BFB81E60C9}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B02A7C9-A939-4741-A72B-005311FC8C0D}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8EAF16-659E-DE4B-AE0C-D4C030EFCB7D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88FF3CF-D26E-B446-930A-7649D2457025}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BDFA5A-EA6A-AD49-862E-1C353BCEC098}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>